--- a/DataSet/서울시 매출분석(편의점).xlsx
+++ b/DataSet/서울시 매출분석(편의점).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newkid\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Hyunsik\01 2016920024 엄현식\2020-2학기\소프트웨어 응용\WaRaConv\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D25FDBA-9EE3-464F-AA82-A93B33EC7A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C456C8-4731-448F-AC58-C6CA734EDE5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12270" yWindow="2970" windowWidth="22515" windowHeight="13875" xr2:uid="{CD63293D-1FF2-4A38-9C6F-F68AAD52BC29}"/>
+    <workbookView xWindow="8985" yWindow="5595" windowWidth="17340" windowHeight="12900" xr2:uid="{CD63293D-1FF2-4A38-9C6F-F68AAD52BC29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,132 +25,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>행정구역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020년2분기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">여성 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서울시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서울특별시 종로구 (1111000000)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 청운효자동(1111051500)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 사직동(1111053000)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 삼청동(1111054000)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 부암동(1111055000)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 평창동(1111056000)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 무악동(1111057000)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 교남동(1111058000)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 가회동(1111060000)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 종로1.2.3.4가동(1111061500)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 종로5.6가동(1111063000)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 이화동(1111064000)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 혜화동(1111065000)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 창신제1동(1111067000)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 창신제2동(1111068000)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 창신제3동(1111069000)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 숭인제1동(1111070000)</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 숭인제2동(1111071000)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 (1114000000)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 소공동(1114052000)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 회현동(1114054000)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 명동(1114055000)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 필동(1114057000)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 장충동(1114058000)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 광희동(1114059000)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 을지로동(1114060500)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 신당동(1114061500)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 다산동(1114062500)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 약수동(1114063500)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 청구동(1114064500)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 신당제5동(1114065000)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 동화동(1114066500)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 황학동(1114067000)</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 중림동(1114068000)</t>
+    <t>2020년2분기남성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2020년2분기여성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020년2분기합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019년2분기남성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019년2분기여성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019년2분기합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용산구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광진구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동대문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중랑구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성북구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강북구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년2분기남성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2018년2분기여성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년2분기합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도봉구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -514,24 +472,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B050DC-7042-4559-BE0E-8DBBE6C3883E}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A2:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.875" customWidth="1"/>
     <col min="2" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -544,10 +500,28 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>101032086</v>
@@ -559,10 +533,28 @@
         <f t="shared" ref="D3:D7" si="0">SUM(B3:C3)</f>
         <v>152063115</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>99659587</v>
+      </c>
+      <c r="I3">
+        <v>56430481</v>
+      </c>
+      <c r="J3">
+        <v>156090068</v>
+      </c>
+      <c r="L3">
+        <v>119537782</v>
+      </c>
+      <c r="M3">
+        <v>65941342</v>
+      </c>
+      <c r="N3">
+        <v>185479124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>96678183</v>
@@ -574,340 +566,212 @@
         <f t="shared" si="0"/>
         <v>145911028</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>100897346</v>
+      </c>
+      <c r="I4">
+        <v>55155797</v>
+      </c>
+      <c r="J4">
+        <v>156056143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>59870547</v>
+        <v>89718981</v>
       </c>
       <c r="C5">
-        <v>31283592</v>
+        <v>39490676</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>91154139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>129209657</v>
+      </c>
+      <c r="H5">
+        <v>107706748</v>
+      </c>
+      <c r="I5">
+        <v>56667452</v>
+      </c>
+      <c r="J5">
+        <v>164374200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>83849556</v>
+        <v>101424023</v>
       </c>
       <c r="C6">
-        <v>43397632</v>
+        <v>52678816</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>127247188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154102839</v>
+      </c>
+      <c r="H6">
+        <v>111918353</v>
+      </c>
+      <c r="I6">
+        <v>62533651</v>
+      </c>
+      <c r="J6">
+        <v>174452004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>39369165</v>
+        <v>103460906</v>
       </c>
       <c r="C7">
-        <v>20448199</v>
+        <v>49518705</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>59817364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>152979612</v>
+      </c>
+      <c r="H7">
+        <v>105105659</v>
+      </c>
+      <c r="I7">
+        <v>55538038</v>
+      </c>
+      <c r="J7">
+        <v>160643697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>68883217</v>
+        <v>109437524</v>
       </c>
       <c r="C8">
-        <v>39710011</v>
+        <v>60794597</v>
       </c>
       <c r="D8">
-        <f>SUM(B8:C8)</f>
-        <v>108593228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>170232120</v>
+      </c>
+      <c r="H8">
+        <v>97640152</v>
+      </c>
+      <c r="I8">
+        <v>57770519</v>
+      </c>
+      <c r="J8">
+        <v>155410671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>48401626</v>
+        <v>100939975</v>
       </c>
       <c r="C9">
-        <v>23449859</v>
+        <v>48512995</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D21" si="1">SUM(B9:C9)</f>
-        <v>71851485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>149452971</v>
+      </c>
+      <c r="H9">
+        <v>100162487</v>
+      </c>
+      <c r="I9">
+        <v>52598111</v>
+      </c>
+      <c r="J9">
+        <v>152760598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>325025407</v>
+        <v>91284939</v>
       </c>
       <c r="C10">
-        <v>152049935</v>
+        <v>42217715</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
-        <v>477075342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>133502653</v>
+      </c>
+      <c r="H10">
+        <v>85624593</v>
+      </c>
+      <c r="I10">
+        <v>45813808</v>
+      </c>
+      <c r="J10">
+        <v>131438401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>30992067</v>
+        <v>82912368</v>
       </c>
       <c r="C11">
-        <v>14179975</v>
+        <v>42877377</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
-        <v>45172042</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>125789739</v>
+      </c>
+      <c r="H11">
+        <v>91174916</v>
+      </c>
+      <c r="I11">
+        <v>52355907</v>
+      </c>
+      <c r="J11">
+        <v>143530823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>89679686</v>
+        <v>90590446</v>
       </c>
       <c r="C12">
-        <v>46971499</v>
+        <v>45638813</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>136651185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136229259</v>
+      </c>
+      <c r="H12">
+        <v>82810431</v>
+      </c>
+      <c r="I12">
+        <v>47870281</v>
+      </c>
+      <c r="J12">
+        <v>130680713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>89093732</v>
+        <v>111122719</v>
       </c>
       <c r="C13">
-        <v>39051786</v>
+        <v>54630178</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
-        <v>128145518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>117693891</v>
-      </c>
-      <c r="C14">
-        <v>43094080</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>160787971</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>238876290</v>
-      </c>
-      <c r="C15">
-        <v>207927355</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>446803645</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>62248676</v>
-      </c>
-      <c r="C16">
-        <v>29538187</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>91786863</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>138937001</v>
-      </c>
-      <c r="C17">
-        <v>53791699</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>192728700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>129211855</v>
-      </c>
-      <c r="C18">
-        <v>56370087</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>185581942</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>22823861</v>
-      </c>
-      <c r="C19">
-        <v>13320272</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>36144133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>135038824</v>
-      </c>
-      <c r="C20">
-        <v>55975142</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>191013966</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>126739718</v>
-      </c>
-      <c r="C21">
-        <v>58615533</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>185355251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>39</v>
+        <v>165752896</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/서울시 매출분석(편의점).xlsx
+++ b/DataSet/서울시 매출분석(편의점).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Hyunsik\01 2016920024 엄현식\2020-2학기\소프트웨어 응용\WaRaConv\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C456C8-4731-448F-AC58-C6CA734EDE5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F718A0D5-68DB-4D35-BB4F-0565D04EE334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="5595" windowWidth="17340" windowHeight="12900" xr2:uid="{CD63293D-1FF2-4A38-9C6F-F68AAD52BC29}"/>
+    <workbookView xWindow="1845" yWindow="1620" windowWidth="24720" windowHeight="12900" xr2:uid="{CD63293D-1FF2-4A38-9C6F-F68AAD52BC29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>행정구역</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,66 @@
   </si>
   <si>
     <t>도봉구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노원구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은평구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서대문구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마포구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양천구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강서구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구로구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금천구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영등포구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동작구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관악구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서초구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송파구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,306 +532,883 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B050DC-7042-4559-BE0E-8DBBE6C3883E}">
-  <dimension ref="A2:N13"/>
+  <dimension ref="A2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.875" customWidth="1"/>
-    <col min="2" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>119537782</v>
+      </c>
+      <c r="C3">
+        <v>65941342</v>
+      </c>
+      <c r="D3">
+        <v>185479124</v>
+      </c>
+      <c r="E3">
+        <v>99659587</v>
+      </c>
+      <c r="F3">
+        <v>56430481</v>
+      </c>
+      <c r="G3">
+        <v>156090068</v>
+      </c>
+      <c r="H3">
         <v>101032086</v>
       </c>
-      <c r="C3">
+      <c r="I3">
         <v>51031029</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">SUM(B3:C3)</f>
-        <v>152063115</v>
-      </c>
-      <c r="H3">
-        <v>99659587</v>
-      </c>
-      <c r="I3">
-        <v>56430481</v>
-      </c>
       <c r="J3">
-        <v>156090068</v>
-      </c>
-      <c r="L3">
-        <v>119537782</v>
-      </c>
-      <c r="M3">
-        <v>65941342</v>
-      </c>
-      <c r="N3">
-        <v>185479124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>152063114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
+        <v>119362607</v>
+      </c>
+      <c r="C4">
+        <v>64274311</v>
+      </c>
+      <c r="D4">
+        <v>183636918</v>
+      </c>
+      <c r="E4">
+        <v>100897346</v>
+      </c>
+      <c r="F4">
+        <v>55155797</v>
+      </c>
+      <c r="G4">
+        <v>156056143</v>
+      </c>
+      <c r="H4">
         <v>96678183</v>
       </c>
-      <c r="C4">
+      <c r="I4">
         <v>49232845</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>145911028</v>
-      </c>
-      <c r="H4">
-        <v>100897346</v>
-      </c>
-      <c r="I4">
-        <v>55155797</v>
-      </c>
       <c r="J4">
-        <v>156056143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>145911027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
+        <v>120124429</v>
+      </c>
+      <c r="C5">
+        <v>64330607</v>
+      </c>
+      <c r="D5">
+        <v>184455036</v>
+      </c>
+      <c r="E5">
+        <v>107706748</v>
+      </c>
+      <c r="F5">
+        <v>56667452</v>
+      </c>
+      <c r="G5">
+        <v>164374200</v>
+      </c>
+      <c r="H5">
         <v>89718981</v>
       </c>
-      <c r="C5">
+      <c r="I5">
         <v>39490676</v>
       </c>
-      <c r="D5">
+      <c r="J5">
         <v>129209657</v>
       </c>
-      <c r="H5">
-        <v>107706748</v>
-      </c>
-      <c r="I5">
-        <v>56667452</v>
-      </c>
-      <c r="J5">
-        <v>164374200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
+        <v>133347683</v>
+      </c>
+      <c r="C6">
+        <v>74019006</v>
+      </c>
+      <c r="D6">
+        <v>207366689</v>
+      </c>
+      <c r="E6">
+        <v>111918353</v>
+      </c>
+      <c r="F6">
+        <v>62533651</v>
+      </c>
+      <c r="G6">
+        <v>174452004</v>
+      </c>
+      <c r="H6">
         <v>101424023</v>
       </c>
-      <c r="C6">
+      <c r="I6">
         <v>52678816</v>
       </c>
-      <c r="D6">
+      <c r="J6">
         <v>154102839</v>
       </c>
-      <c r="H6">
-        <v>111918353</v>
-      </c>
-      <c r="I6">
-        <v>62533651</v>
-      </c>
-      <c r="J6">
-        <v>174452004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
+        <v>115325118</v>
+      </c>
+      <c r="C7">
+        <v>59403017</v>
+      </c>
+      <c r="D7">
+        <v>174728135</v>
+      </c>
+      <c r="E7">
+        <v>105105659</v>
+      </c>
+      <c r="F7">
+        <v>55538038</v>
+      </c>
+      <c r="G7">
+        <v>160643697</v>
+      </c>
+      <c r="H7">
         <v>103460906</v>
       </c>
-      <c r="C7">
+      <c r="I7">
         <v>49518705</v>
       </c>
-      <c r="D7">
+      <c r="J7">
         <v>152979612</v>
       </c>
-      <c r="H7">
-        <v>105105659</v>
-      </c>
-      <c r="I7">
-        <v>55538038</v>
-      </c>
-      <c r="J7">
-        <v>160643697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8">
+        <v>125552101</v>
+      </c>
+      <c r="C8">
+        <v>74131552</v>
+      </c>
+      <c r="D8">
+        <v>199683653</v>
+      </c>
+      <c r="E8">
+        <v>97640152</v>
+      </c>
+      <c r="F8">
+        <v>57770519</v>
+      </c>
+      <c r="G8">
+        <v>155410671</v>
+      </c>
+      <c r="H8">
         <v>109437524</v>
       </c>
-      <c r="C8">
+      <c r="I8">
         <v>60794597</v>
       </c>
-      <c r="D8">
+      <c r="J8">
         <v>170232120</v>
       </c>
-      <c r="H8">
-        <v>97640152</v>
-      </c>
-      <c r="I8">
-        <v>57770519</v>
-      </c>
-      <c r="J8">
-        <v>155410671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9">
+        <v>125849833</v>
+      </c>
+      <c r="C9">
+        <v>66404886</v>
+      </c>
+      <c r="D9">
+        <v>192254720</v>
+      </c>
+      <c r="E9">
+        <v>100162487</v>
+      </c>
+      <c r="F9">
+        <v>52598111</v>
+      </c>
+      <c r="G9">
+        <v>152760598</v>
+      </c>
+      <c r="H9">
         <v>100939975</v>
       </c>
-      <c r="C9">
+      <c r="I9">
         <v>48512995</v>
       </c>
-      <c r="D9">
+      <c r="J9">
         <v>149452971</v>
       </c>
-      <c r="H9">
-        <v>100162487</v>
-      </c>
-      <c r="I9">
-        <v>52598111</v>
-      </c>
-      <c r="J9">
-        <v>152760598</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10">
+        <v>111316648</v>
+      </c>
+      <c r="C10">
+        <v>59908262</v>
+      </c>
+      <c r="D10">
+        <v>171224910</v>
+      </c>
+      <c r="E10">
+        <v>85624593</v>
+      </c>
+      <c r="F10">
+        <v>45813808</v>
+      </c>
+      <c r="G10">
+        <v>131438401</v>
+      </c>
+      <c r="H10">
         <v>91284939</v>
       </c>
-      <c r="C10">
+      <c r="I10">
         <v>42217715</v>
       </c>
-      <c r="D10">
+      <c r="J10">
         <v>133502653</v>
       </c>
-      <c r="H10">
-        <v>85624593</v>
-      </c>
-      <c r="I10">
-        <v>45813808</v>
-      </c>
-      <c r="J10">
-        <v>131438401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11">
+        <v>117397357</v>
+      </c>
+      <c r="C11">
+        <v>65043117</v>
+      </c>
+      <c r="D11">
+        <v>182440473</v>
+      </c>
+      <c r="E11">
+        <v>91174916</v>
+      </c>
+      <c r="F11">
+        <v>52355907</v>
+      </c>
+      <c r="G11">
+        <v>143530823</v>
+      </c>
+      <c r="H11">
         <v>82912368</v>
       </c>
-      <c r="C11">
+      <c r="I11">
         <v>42877377</v>
       </c>
-      <c r="D11">
+      <c r="J11">
         <v>125789739</v>
       </c>
-      <c r="H11">
-        <v>91174916</v>
-      </c>
-      <c r="I11">
-        <v>52355907</v>
-      </c>
-      <c r="J11">
-        <v>143530823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12">
+        <v>112601422</v>
+      </c>
+      <c r="C12">
+        <v>64008858</v>
+      </c>
+      <c r="D12">
+        <v>176610279</v>
+      </c>
+      <c r="E12">
+        <v>82810431</v>
+      </c>
+      <c r="F12">
+        <v>47870281</v>
+      </c>
+      <c r="G12">
+        <v>130680713</v>
+      </c>
+      <c r="H12">
         <v>90590446</v>
       </c>
-      <c r="C12">
+      <c r="I12">
         <v>45638813</v>
       </c>
-      <c r="D12">
+      <c r="J12">
         <v>136229259</v>
       </c>
-      <c r="H12">
-        <v>82810431</v>
-      </c>
-      <c r="I12">
-        <v>47870281</v>
-      </c>
-      <c r="J12">
-        <v>130680713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13">
+        <v>127113902</v>
+      </c>
+      <c r="C13">
+        <v>66465733</v>
+      </c>
+      <c r="D13">
+        <v>193579634</v>
+      </c>
+      <c r="E13">
+        <v>105060699</v>
+      </c>
+      <c r="F13">
+        <v>57540633</v>
+      </c>
+      <c r="G13">
+        <v>162601332</v>
+      </c>
+      <c r="H13">
         <v>111122719</v>
       </c>
-      <c r="C13">
+      <c r="I13">
         <v>54630178</v>
       </c>
-      <c r="D13">
+      <c r="J13">
         <v>165752896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>119411007</v>
+      </c>
+      <c r="C14">
+        <v>63584521</v>
+      </c>
+      <c r="D14">
+        <v>182995529</v>
+      </c>
+      <c r="E14">
+        <v>82582448</v>
+      </c>
+      <c r="F14">
+        <v>45474427</v>
+      </c>
+      <c r="G14">
+        <v>128056875</v>
+      </c>
+      <c r="H14">
+        <v>84118951</v>
+      </c>
+      <c r="I14">
+        <v>42577569</v>
+      </c>
+      <c r="J14">
+        <v>126696520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>114413121</v>
+      </c>
+      <c r="C15">
+        <v>62001809</v>
+      </c>
+      <c r="D15">
+        <v>176414930</v>
+      </c>
+      <c r="E15">
+        <v>87317572</v>
+      </c>
+      <c r="F15">
+        <v>49183391</v>
+      </c>
+      <c r="G15">
+        <v>136500962</v>
+      </c>
+      <c r="H15">
+        <v>94290749</v>
+      </c>
+      <c r="I15">
+        <v>50824697</v>
+      </c>
+      <c r="J15">
+        <v>145115446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>119875205</v>
+      </c>
+      <c r="C16">
+        <v>78409627</v>
+      </c>
+      <c r="D16">
+        <v>198284832</v>
+      </c>
+      <c r="E16">
+        <v>96155249</v>
+      </c>
+      <c r="F16">
+        <v>65384960</v>
+      </c>
+      <c r="G16">
+        <v>161540209</v>
+      </c>
+      <c r="H16">
+        <v>82972633</v>
+      </c>
+      <c r="I16">
+        <v>51401425</v>
+      </c>
+      <c r="J16">
+        <v>13374058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>120770773</v>
+      </c>
+      <c r="C17">
+        <v>74482113</v>
+      </c>
+      <c r="D17">
+        <v>195252886</v>
+      </c>
+      <c r="E17">
+        <v>98580459</v>
+      </c>
+      <c r="F17">
+        <v>59810877</v>
+      </c>
+      <c r="G17">
+        <v>158391336</v>
+      </c>
+      <c r="H17">
+        <v>95674182</v>
+      </c>
+      <c r="I17">
+        <v>55599939</v>
+      </c>
+      <c r="J17">
+        <v>151274121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>102489070</v>
+      </c>
+      <c r="C18">
+        <v>55641733</v>
+      </c>
+      <c r="D18">
+        <v>158130803</v>
+      </c>
+      <c r="E18">
+        <v>81990700</v>
+      </c>
+      <c r="F18">
+        <v>46706137</v>
+      </c>
+      <c r="G18">
+        <v>128696837</v>
+      </c>
+      <c r="H18">
+        <v>90423554</v>
+      </c>
+      <c r="I18">
+        <v>48395192</v>
+      </c>
+      <c r="J18">
+        <v>138818746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>120285665</v>
+      </c>
+      <c r="C19">
+        <v>62303253</v>
+      </c>
+      <c r="D19">
+        <v>182588918</v>
+      </c>
+      <c r="E19">
+        <v>94851312</v>
+      </c>
+      <c r="F19">
+        <v>49509441</v>
+      </c>
+      <c r="G19">
+        <v>144360752</v>
+      </c>
+      <c r="H19">
+        <v>101344800</v>
+      </c>
+      <c r="I19">
+        <v>48920655</v>
+      </c>
+      <c r="J19">
+        <v>150265455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>130969945</v>
+      </c>
+      <c r="C20">
+        <v>62780478</v>
+      </c>
+      <c r="D20">
+        <v>193750423</v>
+      </c>
+      <c r="E20">
+        <v>103530744</v>
+      </c>
+      <c r="F20">
+        <v>52544767</v>
+      </c>
+      <c r="G20">
+        <v>156075511</v>
+      </c>
+      <c r="H20">
+        <v>99340905</v>
+      </c>
+      <c r="I20">
+        <v>46428688</v>
+      </c>
+      <c r="J20">
+        <v>145769593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>135114022</v>
+      </c>
+      <c r="C21">
+        <v>57432574</v>
+      </c>
+      <c r="D21">
+        <v>192546596</v>
+      </c>
+      <c r="E21">
+        <v>112259820</v>
+      </c>
+      <c r="F21">
+        <v>47679900</v>
+      </c>
+      <c r="G21">
+        <v>159939720</v>
+      </c>
+      <c r="H21">
+        <v>124664604</v>
+      </c>
+      <c r="I21">
+        <v>51294511</v>
+      </c>
+      <c r="J21">
+        <v>175959115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>123454074</v>
+      </c>
+      <c r="C22">
+        <v>62072968</v>
+      </c>
+      <c r="D22">
+        <v>185527043</v>
+      </c>
+      <c r="E22">
+        <v>105357982</v>
+      </c>
+      <c r="F22">
+        <v>54368710</v>
+      </c>
+      <c r="G22">
+        <v>159726693</v>
+      </c>
+      <c r="H22">
+        <v>105095227</v>
+      </c>
+      <c r="I22">
+        <v>50938994</v>
+      </c>
+      <c r="J22">
+        <v>156034220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>117784439</v>
+      </c>
+      <c r="C23">
+        <v>62411123</v>
+      </c>
+      <c r="D23">
+        <v>180195562</v>
+      </c>
+      <c r="E23">
+        <v>100259255</v>
+      </c>
+      <c r="F23">
+        <v>52497078</v>
+      </c>
+      <c r="G23">
+        <v>152756333</v>
+      </c>
+      <c r="H23">
+        <v>100105740</v>
+      </c>
+      <c r="I23">
+        <v>51402085</v>
+      </c>
+      <c r="J23">
+        <v>151507825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>119910700</v>
+      </c>
+      <c r="C24">
+        <v>64420002</v>
+      </c>
+      <c r="D24">
+        <v>184330701</v>
+      </c>
+      <c r="E24">
+        <v>100174444</v>
+      </c>
+      <c r="F24">
+        <v>52344132</v>
+      </c>
+      <c r="G24">
+        <v>152518576</v>
+      </c>
+      <c r="H24">
+        <v>107066203</v>
+      </c>
+      <c r="I24">
+        <v>52841527</v>
+      </c>
+      <c r="J24">
+        <v>159907730</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>123344399</v>
+      </c>
+      <c r="C25">
+        <v>82731196</v>
+      </c>
+      <c r="D25">
+        <v>206075594</v>
+      </c>
+      <c r="E25">
+        <v>120843824</v>
+      </c>
+      <c r="F25">
+        <v>97924982</v>
+      </c>
+      <c r="G25">
+        <v>218768805</v>
+      </c>
+      <c r="H25">
+        <v>114642731</v>
+      </c>
+      <c r="I25">
+        <v>55789409</v>
+      </c>
+      <c r="J25">
+        <v>170432140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>123616161</v>
+      </c>
+      <c r="C26">
+        <v>75279772</v>
+      </c>
+      <c r="D26">
+        <v>198895934</v>
+      </c>
+      <c r="E26">
+        <v>110157693</v>
+      </c>
+      <c r="F26">
+        <v>66869906</v>
+      </c>
+      <c r="G26">
+        <v>177027598</v>
+      </c>
+      <c r="H26">
+        <v>120096355</v>
+      </c>
+      <c r="I26">
+        <v>65778636</v>
+      </c>
+      <c r="J26">
+        <v>185874991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>112323629</v>
+      </c>
+      <c r="C27">
+        <v>57531665</v>
+      </c>
+      <c r="D27">
+        <v>169855294</v>
+      </c>
+      <c r="E27">
+        <v>98792373</v>
+      </c>
+      <c r="F27">
+        <v>51075643</v>
+      </c>
+      <c r="G27">
+        <v>149868015</v>
+      </c>
+      <c r="H27">
+        <v>103401538</v>
+      </c>
+      <c r="I27">
+        <v>49501229</v>
+      </c>
+      <c r="J27">
+        <v>152902766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>97126017</v>
+      </c>
+      <c r="C28">
+        <v>49225146</v>
+      </c>
+      <c r="D28">
+        <v>146351163</v>
+      </c>
+      <c r="E28">
+        <v>83075066</v>
+      </c>
+      <c r="F28">
+        <v>42366084</v>
+      </c>
+      <c r="G28">
+        <v>125441150</v>
+      </c>
+      <c r="H28">
+        <v>89024993</v>
+      </c>
+      <c r="I28">
+        <v>43387961</v>
+      </c>
+      <c r="J28">
+        <v>132412954</v>
       </c>
     </row>
   </sheetData>
